--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4650.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4650.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4650</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jhye Avon Richardson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +768,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +820,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +920,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +972,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1024,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1120,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1172,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1224,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1247,7 +1311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1269,7 +1333,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1306,7 +1370,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1343,7 +1407,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1380,7 +1444,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1417,7 +1481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1454,7 +1518,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1491,7 +1555,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1528,7 +1592,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1565,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1602,7 +1666,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1639,7 +1703,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1676,7 +1740,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1713,7 +1777,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1750,7 +1814,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1787,7 +1851,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1824,7 +1888,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4650.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4650.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -760,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/01/2019</t>
@@ -912,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>08/03/2019</t>
@@ -1064,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1112,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -1264,7 +1260,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -1920,4 +1915,357 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6.96%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.66%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>